--- a/Ergebnisse_Teil_1/Study_15_10_2025_LHS_Modell_1.1_KS_Holdout_seed_42/metrics/Trial_370__Reeval_LHS_Modell_1.1.xlsx
+++ b/Ergebnisse_Teil_1/Study_15_10_2025_LHS_Modell_1.1_KS_Holdout_seed_42/metrics/Trial_370__Reeval_LHS_Modell_1.1.xlsx
@@ -5876,10 +5876,10 @@
                   <c:v>19.90129280090332</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>21.39541244506836</c:v>
+                  <c:v>21.39540481567383</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>14.10584259033203</c:v>
+                  <c:v>14.10584449768066</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>19.07998466491699</c:v>
@@ -5888,109 +5888,109 @@
                   <c:v>40.0484733581543</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>21.24103164672852</c:v>
+                  <c:v>21.24105644226074</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>46.82666397094727</c:v>
+                  <c:v>46.82666778564453</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>37.30119323730469</c:v>
+                  <c:v>37.30118942260742</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>20.25272941589355</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>20.26154136657715</c:v>
+                  <c:v>20.26155471801758</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>28.64741325378418</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>46.69845581054688</c:v>
+                  <c:v>46.69844055175781</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>20.30734252929688</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>21.64055252075195</c:v>
+                  <c:v>21.64054298400879</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>24.67723083496094</c:v>
+                  <c:v>24.6772346496582</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>20.86407089233398</c:v>
+                  <c:v>20.86408996582031</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>26.1672420501709</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>20.55183219909668</c:v>
+                  <c:v>20.55184173583984</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>15.43967819213867</c:v>
+                  <c:v>15.43966102600098</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>21.70778465270996</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>46.00746154785156</c:v>
+                  <c:v>46.00745010375977</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>21.7119312286377</c:v>
+                  <c:v>21.71192932128906</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>20.92148971557617</c:v>
+                  <c:v>20.92149353027344</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>24.46070861816406</c:v>
+                  <c:v>24.4606990814209</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>20.43593788146973</c:v>
+                  <c:v>20.4359302520752</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>43.30812072753906</c:v>
+                  <c:v>43.3081169128418</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>20.32989311218262</c:v>
+                  <c:v>20.32990264892578</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>20.35866165161133</c:v>
+                  <c:v>20.35866928100586</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>18.62886428833008</c:v>
+                  <c:v>18.62886238098145</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>20.31389236450195</c:v>
+                  <c:v>20.31389427185059</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>20.35011672973633</c:v>
+                  <c:v>20.35012626647949</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>19.79398536682129</c:v>
+                  <c:v>19.79399871826172</c:v>
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>19.79203987121582</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>20.94158935546875</c:v>
+                  <c:v>20.94159507751465</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>20.40917778015137</c:v>
+                  <c:v>20.40917587280273</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>26.30421829223633</c:v>
+                  <c:v>26.30422019958496</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>7.940600395202637</c:v>
+                  <c:v>7.940585136413574</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>16.54783630371094</c:v>
+                  <c:v>16.54785346984863</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>20.20547485351562</c:v>
+                  <c:v>20.20546531677246</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>23.11558532714844</c:v>
+                  <c:v>23.1155948638916</c:v>
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>20.94798469543457</c:v>
@@ -5999,172 +5999,172 @@
                   <c:v>49.03582763671875</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>20.45877075195312</c:v>
+                  <c:v>20.45876312255859</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>21.23003959655762</c:v>
+                  <c:v>21.23003768920898</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>20.79261207580566</c:v>
+                  <c:v>20.79260444641113</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>20.19561958312988</c:v>
+                  <c:v>20.19560813903809</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>20.60503959655762</c:v>
+                  <c:v>20.60505867004395</c:v>
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>24.1375904083252</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>17.97128105163574</c:v>
+                  <c:v>17.97127914428711</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>11.65176200866699</c:v>
+                  <c:v>11.65175724029541</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>20.25200462341309</c:v>
+                  <c:v>20.25201034545898</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>20.27719879150391</c:v>
+                  <c:v>20.27718544006348</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>9.249001502990723</c:v>
+                  <c:v>9.249008178710938</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>20.48913383483887</c:v>
+                  <c:v>20.4891529083252</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>20.6241626739502</c:v>
+                  <c:v>20.62418174743652</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>34.00442886352539</c:v>
+                  <c:v>34.00444412231445</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>20.7433967590332</c:v>
+                  <c:v>20.7434024810791</c:v>
                 </c:pt>
                 <c:pt idx="57">
                   <c:v>49.76119995117188</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>8.590029716491699</c:v>
+                  <c:v>8.590052604675293</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>48.76776123046875</c:v>
+                  <c:v>48.76778793334961</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>21.16619682312012</c:v>
+                  <c:v>21.16618728637695</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>26.74805641174316</c:v>
+                  <c:v>26.7480640411377</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>24.48757171630859</c:v>
+                  <c:v>24.48758125305176</c:v>
                 </c:pt>
                 <c:pt idx="63">
                   <c:v>47.54441070556641</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>20.93694496154785</c:v>
+                  <c:v>20.93693351745605</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>19.31964302062988</c:v>
+                  <c:v>19.31965827941895</c:v>
                 </c:pt>
                 <c:pt idx="66">
                   <c:v>20.9907169342041</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>20.85139656066895</c:v>
+                  <c:v>20.85140037536621</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>37.17377471923828</c:v>
+                  <c:v>37.17376708984375</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>20.73613357543945</c:v>
+                  <c:v>20.73610496520996</c:v>
                 </c:pt>
                 <c:pt idx="70">
                   <c:v>20.79626655578613</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>10.0949649810791</c:v>
+                  <c:v>10.09496784210205</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>20.71821784973145</c:v>
+                  <c:v>20.71820640563965</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>17.5647144317627</c:v>
+                  <c:v>17.56469535827637</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>21.18280410766602</c:v>
+                  <c:v>21.18281936645508</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>23.29206848144531</c:v>
+                  <c:v>23.29207420349121</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>19.24624633789062</c:v>
+                  <c:v>19.24626541137695</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>18.96634101867676</c:v>
+                  <c:v>18.96634864807129</c:v>
                 </c:pt>
                 <c:pt idx="78">
                   <c:v>20.56937217712402</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>20.65715408325195</c:v>
+                  <c:v>20.65714263916016</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>20.7063159942627</c:v>
+                  <c:v>20.70632171630859</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>19.48844146728516</c:v>
+                  <c:v>19.48845100402832</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>22.68064308166504</c:v>
+                  <c:v>22.68064498901367</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>20.41248321533203</c:v>
+                  <c:v>20.41247367858887</c:v>
                 </c:pt>
                 <c:pt idx="84">
                   <c:v>20.67433738708496</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>20.30158042907715</c:v>
+                  <c:v>20.30158996582031</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>20.44503402709961</c:v>
+                  <c:v>20.44503021240234</c:v>
                 </c:pt>
                 <c:pt idx="87">
                   <c:v>42.71891784667969</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>20.67174911499023</c:v>
+                  <c:v>20.67173957824707</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>20.43513488769531</c:v>
+                  <c:v>20.43512344360352</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>20.04132461547852</c:v>
+                  <c:v>20.04131317138672</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>21.79315567016602</c:v>
+                  <c:v>21.79316139221191</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>20.47794914245605</c:v>
+                  <c:v>20.47797012329102</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>19.8227653503418</c:v>
+                  <c:v>19.82277488708496</c:v>
                 </c:pt>
                 <c:pt idx="94">
                   <c:v>17.48572731018066</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>27.19257926940918</c:v>
+                  <c:v>27.19259452819824</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>20.76100730895996</c:v>
+                  <c:v>20.76100921630859</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>20.53116989135742</c:v>
+                  <c:v>20.53118705749512</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6891,7 +6891,7 @@
         <v>65.2462</v>
       </c>
       <c r="F3">
-        <v>21.39541244506836</v>
+        <v>21.39540481567383</v>
       </c>
       <c r="G3">
         <v>78</v>
@@ -6923,7 +6923,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>14.10584259033203</v>
+        <v>14.10584449768066</v>
       </c>
       <c r="G4">
         <v>78</v>
@@ -7019,7 +7019,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>21.24103164672852</v>
+        <v>21.24105644226074</v>
       </c>
       <c r="G7">
         <v>78</v>
@@ -7051,7 +7051,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>46.82666397094727</v>
+        <v>46.82666778564453</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -7071,7 +7071,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>37.30119323730469</v>
+        <v>37.30118942260742</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -7111,7 +7111,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>20.26154136657715</v>
+        <v>20.26155471801758</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -7151,7 +7151,7 @@
         <v>63.3281</v>
       </c>
       <c r="F13">
-        <v>46.69845581054688</v>
+        <v>46.69844055175781</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -7191,7 +7191,7 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>21.64055252075195</v>
+        <v>21.64054298400879</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -7211,7 +7211,7 @@
         <v>49.8428</v>
       </c>
       <c r="F16">
-        <v>24.67723083496094</v>
+        <v>24.6772346496582</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -7231,7 +7231,7 @@
         <v>46.0307</v>
       </c>
       <c r="F17">
-        <v>20.86407089233398</v>
+        <v>20.86408996582031</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -7271,7 +7271,7 @@
         <v>42.8544</v>
       </c>
       <c r="F19">
-        <v>20.55183219909668</v>
+        <v>20.55184173583984</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -7291,7 +7291,7 @@
         <v>46.3987</v>
       </c>
       <c r="F20">
-        <v>15.43967819213867</v>
+        <v>15.43966102600098</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -7331,7 +7331,7 @@
         <v>0</v>
       </c>
       <c r="F22">
-        <v>46.00746154785156</v>
+        <v>46.00745010375977</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -7351,7 +7351,7 @@
         <v>0</v>
       </c>
       <c r="F23">
-        <v>21.7119312286377</v>
+        <v>21.71192932128906</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -7371,7 +7371,7 @@
         <v>0</v>
       </c>
       <c r="F24">
-        <v>20.92148971557617</v>
+        <v>20.92149353027344</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -7391,7 +7391,7 @@
         <v>0</v>
       </c>
       <c r="F25">
-        <v>24.46070861816406</v>
+        <v>24.4606990814209</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -7411,7 +7411,7 @@
         <v>0</v>
       </c>
       <c r="F26">
-        <v>20.43593788146973</v>
+        <v>20.4359302520752</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -7431,7 +7431,7 @@
         <v>57.5132</v>
       </c>
       <c r="F27">
-        <v>43.30812072753906</v>
+        <v>43.3081169128418</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -7451,7 +7451,7 @@
         <v>0</v>
       </c>
       <c r="F28">
-        <v>20.32989311218262</v>
+        <v>20.32990264892578</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -7471,7 +7471,7 @@
         <v>0</v>
       </c>
       <c r="F29">
-        <v>20.35866165161133</v>
+        <v>20.35866928100586</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -7491,7 +7491,7 @@
         <v>58.4079</v>
       </c>
       <c r="F30">
-        <v>18.62886428833008</v>
+        <v>18.62886238098145</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -7511,7 +7511,7 @@
         <v>0</v>
       </c>
       <c r="F31">
-        <v>20.31389236450195</v>
+        <v>20.31389427185059</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -7531,7 +7531,7 @@
         <v>0</v>
       </c>
       <c r="F32">
-        <v>20.35011672973633</v>
+        <v>20.35012626647949</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -7551,7 +7551,7 @@
         <v>0</v>
       </c>
       <c r="F33">
-        <v>19.79398536682129</v>
+        <v>19.79399871826172</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -7591,7 +7591,7 @@
         <v>0</v>
       </c>
       <c r="F35">
-        <v>20.94158935546875</v>
+        <v>20.94159507751465</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -7611,7 +7611,7 @@
         <v>51.0217</v>
       </c>
       <c r="F36">
-        <v>20.40917778015137</v>
+        <v>20.40917587280273</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -7631,7 +7631,7 @@
         <v>0</v>
       </c>
       <c r="F37">
-        <v>26.30421829223633</v>
+        <v>26.30422019958496</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -7651,7 +7651,7 @@
         <v>0</v>
       </c>
       <c r="F38">
-        <v>7.940600395202637</v>
+        <v>7.940585136413574</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -7671,7 +7671,7 @@
         <v>0</v>
       </c>
       <c r="F39">
-        <v>16.54783630371094</v>
+        <v>16.54785346984863</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -7691,7 +7691,7 @@
         <v>0</v>
       </c>
       <c r="F40">
-        <v>20.20547485351562</v>
+        <v>20.20546531677246</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -7711,7 +7711,7 @@
         <v>51.9776</v>
       </c>
       <c r="F41">
-        <v>23.11558532714844</v>
+        <v>23.1155948638916</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -7771,7 +7771,7 @@
         <v>0</v>
       </c>
       <c r="F44">
-        <v>20.45877075195312</v>
+        <v>20.45876312255859</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -7791,7 +7791,7 @@
         <v>0</v>
       </c>
       <c r="F45">
-        <v>21.23003959655762</v>
+        <v>21.23003768920898</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -7811,7 +7811,7 @@
         <v>0</v>
       </c>
       <c r="F46">
-        <v>20.79261207580566</v>
+        <v>20.79260444641113</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -7831,7 +7831,7 @@
         <v>0</v>
       </c>
       <c r="F47">
-        <v>20.19561958312988</v>
+        <v>20.19560813903809</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -7851,7 +7851,7 @@
         <v>53.3588</v>
       </c>
       <c r="F48">
-        <v>20.60503959655762</v>
+        <v>20.60505867004395</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -7891,7 +7891,7 @@
         <v>0</v>
       </c>
       <c r="F50">
-        <v>17.97128105163574</v>
+        <v>17.97127914428711</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -7911,7 +7911,7 @@
         <v>0</v>
       </c>
       <c r="F51">
-        <v>11.65176200866699</v>
+        <v>11.65175724029541</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -7931,7 +7931,7 @@
         <v>0</v>
       </c>
       <c r="F52">
-        <v>20.25200462341309</v>
+        <v>20.25201034545898</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -7951,7 +7951,7 @@
         <v>0</v>
       </c>
       <c r="F53">
-        <v>20.27719879150391</v>
+        <v>20.27718544006348</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -7971,7 +7971,7 @@
         <v>55.0076</v>
       </c>
       <c r="F54">
-        <v>9.249001502990723</v>
+        <v>9.249008178710938</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -7991,7 +7991,7 @@
         <v>27.296</v>
       </c>
       <c r="F55">
-        <v>20.48913383483887</v>
+        <v>20.4891529083252</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -8011,7 +8011,7 @@
         <v>68.2514</v>
       </c>
       <c r="F56">
-        <v>20.6241626739502</v>
+        <v>20.62418174743652</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -8031,7 +8031,7 @@
         <v>0</v>
       </c>
       <c r="F57">
-        <v>34.00442886352539</v>
+        <v>34.00444412231445</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -8051,7 +8051,7 @@
         <v>0</v>
       </c>
       <c r="F58">
-        <v>20.7433967590332</v>
+        <v>20.7434024810791</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -8091,7 +8091,7 @@
         <v>56.9723</v>
       </c>
       <c r="F60">
-        <v>8.590029716491699</v>
+        <v>8.590052604675293</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -8111,7 +8111,7 @@
         <v>50.0149</v>
       </c>
       <c r="F61">
-        <v>48.76776123046875</v>
+        <v>48.76778793334961</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -8131,7 +8131,7 @@
         <v>47.4245</v>
       </c>
       <c r="F62">
-        <v>21.16619682312012</v>
+        <v>21.16618728637695</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -8151,7 +8151,7 @@
         <v>48.1148</v>
       </c>
       <c r="F63">
-        <v>26.74805641174316</v>
+        <v>26.7480640411377</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -8171,7 +8171,7 @@
         <v>48.9905</v>
       </c>
       <c r="F64">
-        <v>24.48757171630859</v>
+        <v>24.48758125305176</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -8211,7 +8211,7 @@
         <v>53.0738</v>
       </c>
       <c r="F66">
-        <v>20.93694496154785</v>
+        <v>20.93693351745605</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -8231,7 +8231,7 @@
         <v>0</v>
       </c>
       <c r="F67">
-        <v>19.31964302062988</v>
+        <v>19.31965827941895</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -8271,7 +8271,7 @@
         <v>0</v>
       </c>
       <c r="F69">
-        <v>20.85139656066895</v>
+        <v>20.85140037536621</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -8291,7 +8291,7 @@
         <v>71.8596</v>
       </c>
       <c r="F70">
-        <v>37.17377471923828</v>
+        <v>37.17376708984375</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -8311,7 +8311,7 @@
         <v>42.2746</v>
       </c>
       <c r="F71">
-        <v>20.73613357543945</v>
+        <v>20.73610496520996</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -8351,7 +8351,7 @@
         <v>0</v>
       </c>
       <c r="F73">
-        <v>10.0949649810791</v>
+        <v>10.09496784210205</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -8371,7 +8371,7 @@
         <v>0</v>
       </c>
       <c r="F74">
-        <v>20.71821784973145</v>
+        <v>20.71820640563965</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -8391,7 +8391,7 @@
         <v>0</v>
       </c>
       <c r="F75">
-        <v>17.5647144317627</v>
+        <v>17.56469535827637</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -8411,7 +8411,7 @@
         <v>0</v>
       </c>
       <c r="F76">
-        <v>21.18280410766602</v>
+        <v>21.18281936645508</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -8431,7 +8431,7 @@
         <v>0</v>
       </c>
       <c r="F77">
-        <v>23.29206848144531</v>
+        <v>23.29207420349121</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -8451,7 +8451,7 @@
         <v>0</v>
       </c>
       <c r="F78">
-        <v>19.24624633789062</v>
+        <v>19.24626541137695</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -8471,7 +8471,7 @@
         <v>0</v>
       </c>
       <c r="F79">
-        <v>18.96634101867676</v>
+        <v>18.96634864807129</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -8511,7 +8511,7 @@
         <v>0</v>
       </c>
       <c r="F81">
-        <v>20.65715408325195</v>
+        <v>20.65714263916016</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -8531,7 +8531,7 @@
         <v>0</v>
       </c>
       <c r="F82">
-        <v>20.7063159942627</v>
+        <v>20.70632171630859</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -8551,7 +8551,7 @@
         <v>0</v>
       </c>
       <c r="F83">
-        <v>19.48844146728516</v>
+        <v>19.48845100402832</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -8571,7 +8571,7 @@
         <v>0</v>
       </c>
       <c r="F84">
-        <v>22.68064308166504</v>
+        <v>22.68064498901367</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -8591,7 +8591,7 @@
         <v>48.0677</v>
       </c>
       <c r="F85">
-        <v>20.41248321533203</v>
+        <v>20.41247367858887</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -8631,7 +8631,7 @@
         <v>0</v>
       </c>
       <c r="F87">
-        <v>20.30158042907715</v>
+        <v>20.30158996582031</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -8651,7 +8651,7 @@
         <v>0</v>
       </c>
       <c r="F88">
-        <v>20.44503402709961</v>
+        <v>20.44503021240234</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -8691,7 +8691,7 @@
         <v>54.6848</v>
       </c>
       <c r="F90">
-        <v>20.67174911499023</v>
+        <v>20.67173957824707</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -8711,7 +8711,7 @@
         <v>0</v>
       </c>
       <c r="F91">
-        <v>20.43513488769531</v>
+        <v>20.43512344360352</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -8731,7 +8731,7 @@
         <v>0</v>
       </c>
       <c r="F92">
-        <v>20.04132461547852</v>
+        <v>20.04131317138672</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -8751,7 +8751,7 @@
         <v>0</v>
       </c>
       <c r="F93">
-        <v>21.79315567016602</v>
+        <v>21.79316139221191</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -8771,7 +8771,7 @@
         <v>34.3823</v>
       </c>
       <c r="F94">
-        <v>20.47794914245605</v>
+        <v>20.47797012329102</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -8791,7 +8791,7 @@
         <v>44.9896</v>
       </c>
       <c r="F95">
-        <v>19.8227653503418</v>
+        <v>19.82277488708496</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -8831,7 +8831,7 @@
         <v>22.5543</v>
       </c>
       <c r="F97">
-        <v>27.19257926940918</v>
+        <v>27.19259452819824</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -8851,7 +8851,7 @@
         <v>0</v>
       </c>
       <c r="F98">
-        <v>20.76100730895996</v>
+        <v>20.76100921630859</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -8871,7 +8871,7 @@
         <v>0</v>
       </c>
       <c r="F99">
-        <v>20.53116989135742</v>
+        <v>20.53118705749512</v>
       </c>
     </row>
     <row r="100" spans="1:6">
